--- a/Documentos/Backlog do Produto - DW.xlsx
+++ b/Documentos/Backlog do Produto - DW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Alexander\Desktop\DW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Alexander\Desktop\DW\Data-Warehouse\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB1DAA-34AA-40A5-87C3-D0914A587232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5981C109-CDDB-4AB3-A8D6-24A10191286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4500" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -975,7 +975,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1216,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,24 +1395,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1414,6 +1402,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Activity" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2487,10 +2514,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2516,94 +2543,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
     </row>
     <row r="6" spans="1:20" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
       <c r="Q6" s="51" t="s">
         <v>34</v>
       </c>
@@ -2611,18 +2638,18 @@
     <row r="7" spans="1:20" s="51" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
       <c r="Q7" s="51" t="s">
         <v>3</v>
       </c>
@@ -2892,37 +2919,37 @@
         <v>0</v>
       </c>
       <c r="C14" s="53"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="74">
         <v>45463</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54">
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74">
         <v>45484</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="75">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="O14" s="38"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="32">
         <f>COUNTIF(Q9,H:H)</f>
@@ -2958,7 +2985,7 @@
       <c r="I15" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="63">
         <v>45467</v>
       </c>
       <c r="K15" s="54"/>
@@ -3147,7 +3174,7 @@
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="69">
+      <c r="M19" s="63">
         <f>J19+2</f>
         <v>45490</v>
       </c>
@@ -3169,37 +3196,37 @@
         <v>0</v>
       </c>
       <c r="C20" s="53"/>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="74">
         <v>45485</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="54">
+      <c r="K20" s="74"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="74">
         <v>45513</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="75">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="O20" s="38"/>
+      <c r="O20" s="75"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="41"/>
       <c r="T20" s="59"/>
@@ -3232,7 +3259,7 @@
       <c r="I21" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="63">
         <f>M19+1</f>
         <v>45491</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>112</v>
       </c>
       <c r="J22" s="54">
-        <f>M21+1</f>
+        <f t="shared" ref="J22:J27" si="6">M21+1</f>
         <v>45496</v>
       </c>
       <c r="K22" s="54"/>
@@ -3327,7 +3354,7 @@
         <v>112</v>
       </c>
       <c r="J23" s="54">
-        <f>M22+1</f>
+        <f t="shared" si="6"/>
         <v>45503</v>
       </c>
       <c r="K23" s="54"/>
@@ -3374,7 +3401,7 @@
         <v>112</v>
       </c>
       <c r="J24" s="54">
-        <f>M23+1</f>
+        <f t="shared" si="6"/>
         <v>45505</v>
       </c>
       <c r="K24" s="54"/>
@@ -3421,7 +3448,7 @@
         <v>112</v>
       </c>
       <c r="J25" s="54">
-        <f>M24+1</f>
+        <f t="shared" si="6"/>
         <v>45510</v>
       </c>
       <c r="K25" s="54"/>
@@ -3468,7 +3495,7 @@
         <v>112</v>
       </c>
       <c r="J26" s="54">
-        <f>M25+1</f>
+        <f t="shared" si="6"/>
         <v>45513</v>
       </c>
       <c r="K26" s="54"/>
@@ -3515,7 +3542,7 @@
         <v>112</v>
       </c>
       <c r="J27" s="54">
-        <f>M26+1</f>
+        <f t="shared" si="6"/>
         <v>45518</v>
       </c>
       <c r="K27" s="54"/>
@@ -3567,7 +3594,7 @@
       </c>
       <c r="K28" s="54"/>
       <c r="L28" s="56"/>
-      <c r="M28" s="69">
+      <c r="M28" s="63">
         <f>J28+2</f>
         <v>45525</v>
       </c>
@@ -3896,7 +3923,7 @@
     <mergeCell ref="D1:O7"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="J29:L29 J32:L32 J10:J29 M10:M29 M31:M32 J31:J32 J30:M30">
+  <conditionalFormatting sqref="J10:J29 M10:M29 J29:L29 J30:M30 J31:J32 M31:M32 J32:L32">
     <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
       <formula>$M$9</formula>
     </cfRule>
@@ -3966,7 +3993,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H37 H10:H32</xm:sqref>
+          <xm:sqref>H10:H32 H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4026,39 +4053,39 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E4" s="13">
@@ -4131,10 +4158,10 @@
       <c r="O5" s="23">
         <v>100</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="62"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -5213,7 +5240,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,16 +5253,16 @@
       <c r="A1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="67">
+      <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="61">
         <v>45534</v>
       </c>
     </row>
@@ -5253,16 +5280,16 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,9 +5304,9 @@
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>3.7692307692307692</v>
+        <v>3.6923076923076925</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5331,7 @@
       <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="64">
         <f>SUM(B9:B10)</f>
         <v>42</v>
       </c>
